--- a/results/LGBMClassifier_randomsearch-estimator_df.xlsx
+++ b/results/LGBMClassifier_randomsearch-estimator_df.xlsx
@@ -503,7 +503,7 @@
                                                    'Delta_OnAxis', 'D...
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f9d58085610&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f98e1485f10&gt;),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
                                 colsample_bytree=0.4, early_stopping_rounds=1,
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9d7828b040&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9864086c10&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.566147988832334</v>
+        <v>0.5766163165142839</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -656,7 +656,7 @@
                                                    'Delta_OnAxis', 'D...
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f9d5b68e5e0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f98b0ebd850&gt;),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
                                 colsample_bytree=0.5, early_stopping_rounds=7,
@@ -668,7 +668,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9d7828b040&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9864086c10&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -736,10 +736,10 @@
                 ('selector', None),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                colsample_bytree=0.5, early_stopping_rounds=3,
+                                colsample_bytree=0.5, early_stopping_rounds=1,
                                 learning_rate=0.05, max_bin=50, max_depth=7,
-                                min_child_samples=7, min_data_in_leaf=30,
-                                num_iterations=300, num_leaves=2,
+                                min_child_samples=5, min_data_in_leaf=30,
+                                num_iterations=400, num_leaves=2,
                                 random_state=42, subsample=0.5))])</t>
         </is>
       </c>
@@ -755,11 +755,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 300, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 7, 'model__max_depth': 7, 'model__max_bin': 50, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 3, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 400, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 5, 'model__max_depth': 7, 'model__max_bin': 50, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 1, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5915617853079154</v>
+        <v>0.5921489092263086</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>99</v>
       </c>
       <c r="G5" t="n">
-        <v>0.733242697647592</v>
+        <v>0.7440360090022505</v>
       </c>
       <c r="H5" t="n">
         <v>0.5833333333333334</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5730714040001966</v>
+        <v>0.5781006437662785</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7547131840861725</v>
+        <v>0.7441040932502031</v>
       </c>
       <c r="H6" t="n">
         <v>0.4611594202898551</v>

--- a/results/LGBMClassifier_randomsearch-estimator_df.xlsx
+++ b/results/LGBMClassifier_randomsearch-estimator_df.xlsx
@@ -501,21 +501,22 @@
                                                    'Delta_Fullpath', 'Delta_MT',
                                                    'Delta_OffAxis',
                                                    'Delta_OnAxis', 'D...
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98e1485f10&gt;),
+                ('selector', None),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                colsample_bytree=0.4, early_stopping_rounds=1,
+                                colsample_bytree=0.5, early_stopping_rounds=3,
                                 learning_rate=0.05, max_bin=75, max_depth=7,
-                                min_child_samples=1, min_data_in_leaf=30,
+                                min_child_samples=7, min_data_in_leaf=25,
                                 num_iterations=400, num_leaves=2,
                                 random_state=42, subsample=0.5))])</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9864086c10&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -525,11 +526,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 400, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 1, 'model__max_depth': 7, 'model__max_bin': 75, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 1, 'model__colsample_bytree': 0.4, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 400, 'model__min_data_in_leaf': 25, 'model__min_child_samples': 7, 'model__max_depth': 7, 'model__max_bin': 75, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 3, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5739919441546174</v>
+        <v>0.5887404140631359</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -540,19 +541,19 @@
         <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7013753438359589</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.539241622574956</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0]</t>
+          <t>[1 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 0 1 0 0 1 1 1 0 1 1 0 1 0 1 0 0 0 1 1]</t>
+          <t>[0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1]</t>
         </is>
       </c>
     </row>
@@ -583,10 +584,10 @@
                 ('selector', None),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                colsample_bytree=0.4, early_stopping_rounds=3,
-                                learning_rate=0.05, max_bin=75, max_depth=7,
+                                colsample_bytree=0.5, early_stopping_rounds=7,
+                                learning_rate=0.05, max_bin=25, max_depth=7,
                                 min_child_samples=5, min_data_in_leaf=30,
-                                num_iterations=400, num_leaves=2,
+                                num_iterations=300, num_leaves=2,
                                 random_state=42, subsample=0.5))])</t>
         </is>
       </c>
@@ -602,11 +603,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 400, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 5, 'model__max_depth': 7, 'model__max_bin': 75, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 3, 'model__colsample_bytree': 0.4, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 300, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 5, 'model__max_depth': 7, 'model__max_bin': 25, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 7, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5766163165142839</v>
+        <v>0.5786331989976492</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -617,19 +618,19 @@
         <v>69</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7435179549604384</v>
+        <v>0.7420548476619618</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4044289044289044</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
+          <t>[0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 1 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0]</t>
+          <t>[0 1 1 1 0 0 0 0 1 1 1 1 1 1 0 1 0 0 1 0 0 1 0 1]</t>
         </is>
       </c>
     </row>
@@ -654,21 +655,23 @@
                                                    'Delta_Fullpath', 'Delta_MT',
                                                    'Delta_OffAxis',
                                                    'Delta_OnAxis', 'D...
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98b0ebd850&gt;),
+                ('selector', None),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                colsample_bytree=0.5, early_stopping_rounds=7,
-                                learning_rate=0.05, max_bin=75, max_depth=7,
-                                min_child_samples=7, min_data_in_leaf=30,
-                                num_iterations=300, num_leaves=2,
-                                random_state=42, subsample=0.5))])</t>
+                                colsample_bytree=0.4, early_stopping_rounds=1,
+                                max_bin=50, max_depth=7, min_child_samples=7,
+                                min_data_in_leaf=25, num_iterations=300,
+                                num_leaves=2, random_state=42,
+                                subsample=0.5))])</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9864086c10&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -678,11 +681,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 300, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 7, 'model__max_depth': 7, 'model__max_bin': 75, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 7, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 300, 'model__min_data_in_leaf': 25, 'model__min_child_samples': 7, 'model__max_depth': 7, 'model__max_bin': 50, 'model__learning_rate': 0.1, 'model__early_stopping_rounds': 1, 'model__colsample_bytree': 0.4, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5229197417126479</v>
+        <v>0.6458327413900169</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -693,19 +696,19 @@
         <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6478803608948214</v>
+        <v>0.8495319944694777</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0.3584656084656084</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 1]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1 1 0 1 1 1 0 0 1 1 1 1 1 0 0 0 0 0 0]</t>
+          <t>[1 0 1 1 1 1 1 1 1 0 1 0 1 1 0 1 0 1 1 0 1 0 0 1]</t>
         </is>
       </c>
     </row>
@@ -736,10 +739,10 @@
                 ('selector', None),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                colsample_bytree=0.5, early_stopping_rounds=1,
+                                colsample_bytree=0.5, early_stopping_rounds=7,
                                 learning_rate=0.05, max_bin=50, max_depth=7,
-                                min_child_samples=5, min_data_in_leaf=30,
-                                num_iterations=400, num_leaves=2,
+                                min_child_samples=7, min_data_in_leaf=30,
+                                num_iterations=300, num_leaves=2,
                                 random_state=42, subsample=0.5))])</t>
         </is>
       </c>
@@ -755,11 +758,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 400, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 5, 'model__max_depth': 7, 'model__max_bin': 50, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 1, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 300, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 7, 'model__max_depth': 7, 'model__max_bin': 50, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 7, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5921489092263086</v>
+        <v>0.5916797340945947</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -770,19 +773,19 @@
         <v>99</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7440360090022505</v>
+        <v>0.7850457063849681</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.4928571428571429</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
+          <t>[0 0 0 1 1 1 1 1 0 0 1 0 1 0 0 0 1 0 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[0 0 1 0 0 1 0 1 0 1 0 1 1 1 1 1 0 1 1 1 1 1 0 0]</t>
+          <t>[1 0 1 0 0 1 1 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0]</t>
         </is>
       </c>
     </row>
@@ -807,17 +810,18 @@
                                                    'Delta_Fullpath', 'Delta_MT',
                                                    'Delta_OffAxis',
                                                    'Delta_OnAxis', 'D...
+                                                   'FullPath_V', 'MT_HR',
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector', None),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                colsample_bytree=0.5, early_stopping_rounds=3,
-                                learning_rate=0.05, max_bin=75, max_depth=7,
-                                min_child_samples=1, min_data_in_leaf=30,
-                                num_iterations=300, num_leaves=2,
-                                random_state=42, subsample=0.5))])</t>
+                                colsample_bytree=0.5, early_stopping_rounds=7,
+                                max_bin=25, max_depth=7, min_child_samples=5,
+                                min_data_in_leaf=25, num_iterations=400,
+                                num_leaves=2, random_state=42,
+                                subsample=0.5))])</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -832,11 +836,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 300, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 1, 'model__max_depth': 7, 'model__max_bin': 75, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 3, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 400, 'model__min_data_in_leaf': 25, 'model__min_child_samples': 5, 'model__max_depth': 7, 'model__max_bin': 25, 'model__learning_rate': 0.1, 'model__early_stopping_rounds': 7, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5781006437662785</v>
+        <v>0.5600832629702598</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -847,19 +851,19 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7441040932502031</v>
+        <v>0.8922980745186295</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4611594202898551</v>
+        <v>0.5392753623188405</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0 0 1 0]</t>
+          <t>[1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 0 0 0 1 0 1 0 1 1 1 1 0 0 0 1 0 1 0 1]</t>
+          <t>[0 0 0 1 1 0 0 0 1 0 1 1 0 1 1 1 0 1 0 1 1 1 1 1]</t>
         </is>
       </c>
     </row>
